--- a/KKTimeManagement.xlsx
+++ b/KKTimeManagement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data\KearnKreative\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8B3D71BA-C13A-47FD-B4EC-D5341623A2DB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FCB9B627-C56F-4645-8045-B0FE10BDB09F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="1" xr2:uid="{56A034E3-F89D-4D07-BB60-6D4B99E2DBC8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{56A034E3-F89D-4D07-BB60-6D4B99E2DBC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeManager" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -72,6 +72,12 @@
   <si>
     <t>TimeManager Prog</t>
   </si>
+  <si>
+    <t>make index navbar change in jquery</t>
+  </si>
+  <si>
+    <t>Initial build</t>
+  </si>
 </sst>
 </file>
 
@@ -90,7 +96,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,6 +106,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -125,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -149,6 +161,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -467,9 +485,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE6AB50-18AC-4571-A706-249D4B3F1AEF}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +501,7 @@
     <col min="7" max="7" width="11.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="4"/>
-    <col min="10" max="10" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -515,7 +533,7 @@
       <c r="I1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -547,6 +565,9 @@
       <c r="I2" s="4">
         <f>SUM(H2-G2)</f>
         <v>4</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -6546,8 +6567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39DC1B9-2BA9-4809-9C25-8DE983F218F6}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6561,7 +6582,7 @@
     <col min="7" max="7" width="11.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="4"/>
-    <col min="10" max="10" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -6593,7 +6614,7 @@
       <c r="I1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6625,6 +6646,9 @@
       <c r="I2" s="4">
         <f>SUM(H2-G2)</f>
         <v>1</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
